--- a/biology/Histoire de la zoologie et de la botanique/Johann_Julius_Walbaum/Johann_Julius_Walbaum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Julius_Walbaum/Johann_Julius_Walbaum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Julius Walbaum est un médecin et un naturaliste allemand, né le 30 juin 1724 et mort le 21 août 1799.
 Il constitue un grand cabinet de curiosités à Lubeck et se fait connaître par ses publications sur les poissons et les tortues. En ichtyologie, sa principale contribution est la réédition du livre Peter Artedi (1705-1735) qui présente toutes les espèces connues à l'époque augmentées par une bibliographie mise à jour à Walbaum.
-Il décrit près de 200 nouvelles espèces, dont 43 encore valides aujourd'hui, suivant les critères linnéens. Il renomme ainsi les espèces créées par Johann David Schöpf (1752-1800), Georg Wilhelm Steller (1709-1746), Thomas Pennant (1726-1798) et Stepan Kracheninnikov (1711-1755). Ce livre sera très sévèrement critiqué par Georges Cuvier (1769-1832)[1]. Son œuvre est réévaluée par Theodore Nicholas Gill (1837-1914)[2] qui reconnaît son intérêt notamment pour ses descriptions de divers genres décrits par d’autres.
+Il décrit près de 200 nouvelles espèces, dont 43 encore valides aujourd'hui, suivant les critères linnéens. Il renomme ainsi les espèces créées par Johann David Schöpf (1752-1800), Georg Wilhelm Steller (1709-1746), Thomas Pennant (1726-1798) et Stepan Kracheninnikov (1711-1755). Ce livre sera très sévèrement critiqué par Georges Cuvier (1769-1832). Son œuvre est réévaluée par Theodore Nicholas Gill (1837-1914) qui reconnaît son intérêt notamment pour ses descriptions de divers genres décrits par d’autres.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Disputatio ... de venæ sectione, 1749
 Index pharmacopolii completi cum calendario pharmaceutico, Gleditsch, Leipzig 1767-69
